--- a/scene_cat_exp_2023.2.2_english/input_files/28_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/28_scenecat_block_order.xlsx
@@ -360,12 +360,12 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>kitchens_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_1</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -375,12 +375,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>kitchens_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_2</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="4">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
